--- a/documentacao/SPRINT-1-requisitos.xlsx
+++ b/documentacao/SPRINT-1-requisitos.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Data-Source\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VITORIA\Data-Source\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Histórico de Alterações" sheetId="4" r:id="rId1"/>
     <sheet name="Documentação e Matriz" sheetId="1" r:id="rId2"/>
+    <sheet name="Regras de Negócio" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="155">
   <si>
     <t>Histórico de alterações do documento</t>
   </si>
@@ -574,6 +575,24 @@
   </si>
   <si>
     <t>https://spring.io/</t>
+  </si>
+  <si>
+    <t>Com a indicação de x usuários, se os usuários indicados criarem uma conta, o "indicador" se tornará um usuário premium</t>
+  </si>
+  <si>
+    <t>Na indicação de usuários, o usuário não pode "se auto-indicar"</t>
+  </si>
+  <si>
+    <t>Usuários deverão ter dois tipos de perfis - premium ou free</t>
+  </si>
+  <si>
+    <t>Usuários premium terão privilégios que os usuários free não terão</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
 </sst>
 </file>
@@ -833,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -940,6 +959,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,15 +998,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="33">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1838,13 +1872,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:E32" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:E32" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
   <autoFilter ref="B4:E32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Versão" dataDxfId="25"/>
-    <tableColumn id="2" name="Alteração efetuada" dataDxfId="24"/>
-    <tableColumn id="3" name="Responsável " dataDxfId="23"/>
-    <tableColumn id="4" name="Data " dataDxfId="22">
+    <tableColumn id="1" name="Versão" dataDxfId="28"/>
+    <tableColumn id="2" name="Alteração efetuada" dataDxfId="27"/>
+    <tableColumn id="3" name="Responsável " dataDxfId="26"/>
+    <tableColumn id="4" name="Data " dataDxfId="25">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1853,27 +1887,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="requisitos" displayName="requisitos" ref="D4:U69" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="requisitos" displayName="requisitos" ref="D4:U69" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
   <autoFilter ref="D4:U69"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Descrição do Requisito" dataDxfId="17"/>
-    <tableColumn id="2" name="Objetivo / Estratégia de Negócio" dataDxfId="16"/>
-    <tableColumn id="3" name="Prioridade" dataDxfId="15"/>
-    <tableColumn id="4" name="Versão do Requisito" dataDxfId="14"/>
-    <tableColumn id="7" name="Tipo Requisito " dataDxfId="13"/>
-    <tableColumn id="8" name="Complexidade" dataDxfId="12"/>
-    <tableColumn id="9" name="Solicitante" dataDxfId="11"/>
-    <tableColumn id="10" name="Responsável" dataDxfId="10"/>
-    <tableColumn id="11" name="Validador" dataDxfId="9"/>
-    <tableColumn id="12" name="Critérios de Aceitação" dataDxfId="8"/>
-    <tableColumn id="13" name="Dependência Internas entre Requisitos  (Rastreabilidade)" dataDxfId="7"/>
-    <tableColumn id="14" name="Dependências Externas entre Requisitos (Rastreabilidade)" dataDxfId="6"/>
-    <tableColumn id="15" name="Data da Criação" dataDxfId="5"/>
-    <tableColumn id="16" name="Data Última Alteração" dataDxfId="4"/>
-    <tableColumn id="17" name="Responsável pela última alteração" dataDxfId="3"/>
-    <tableColumn id="18" name="Motivo Última Alteração" dataDxfId="2"/>
-    <tableColumn id="19" name="Documentação de Apoio" dataDxfId="1"/>
-    <tableColumn id="20" name="Situação do Requisito" dataDxfId="0"/>
+    <tableColumn id="1" name="Descrição do Requisito" dataDxfId="20"/>
+    <tableColumn id="2" name="Objetivo / Estratégia de Negócio" dataDxfId="19"/>
+    <tableColumn id="3" name="Prioridade" dataDxfId="18"/>
+    <tableColumn id="4" name="Versão do Requisito" dataDxfId="17"/>
+    <tableColumn id="7" name="Tipo Requisito " dataDxfId="16"/>
+    <tableColumn id="8" name="Complexidade" dataDxfId="15"/>
+    <tableColumn id="9" name="Solicitante" dataDxfId="14"/>
+    <tableColumn id="10" name="Responsável" dataDxfId="13"/>
+    <tableColumn id="11" name="Validador" dataDxfId="12"/>
+    <tableColumn id="12" name="Critérios de Aceitação" dataDxfId="11"/>
+    <tableColumn id="13" name="Dependência Internas entre Requisitos  (Rastreabilidade)" dataDxfId="10"/>
+    <tableColumn id="14" name="Dependências Externas entre Requisitos (Rastreabilidade)" dataDxfId="9"/>
+    <tableColumn id="15" name="Data da Criação" dataDxfId="8"/>
+    <tableColumn id="16" name="Data Última Alteração" dataDxfId="7"/>
+    <tableColumn id="17" name="Responsável pela última alteração" dataDxfId="6"/>
+    <tableColumn id="18" name="Motivo Última Alteração" dataDxfId="5"/>
+    <tableColumn id="19" name="Documentação de Apoio" dataDxfId="4"/>
+    <tableColumn id="20" name="Situação do Requisito" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B2:C82" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B2:C82"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" name="Descrição" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2170,7 +2215,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2186,12 +2231,12 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:5" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2293,7 +2338,18 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8">
+        <v>43734</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="8"/>
@@ -2360,28 +2416,28 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.2"/>
@@ -2412,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -2467,24 +2523,24 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="40" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="42">
+      <c r="P2" s="45">
         <f ca="1">TODAY()</f>
-        <v>43720</v>
+        <v>43734</v>
       </c>
       <c r="R2" s="18"/>
       <c r="T2" s="31"/>
@@ -2493,18 +2549,18 @@
     <row r="3" spans="2:21" s="13" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="43"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="46"/>
       <c r="T3" s="31"/>
       <c r="U3" s="19"/>
     </row>
@@ -2897,7 +2953,7 @@
         <f>IF(requisitos[[#This Row],[Data da Criação]]&lt;&gt;requisitos[[#This Row],[Data Última Alteração]],"Adequação ao escopo do projeto","N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="T10" s="46" t="s">
+      <c r="T10" s="36" t="s">
         <v>148</v>
       </c>
       <c r="U10" s="4" t="s">
@@ -5631,4 +5687,146 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E82"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" style="38" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="38" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="37">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="37">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="37">
+        <v>3</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="37">
+        <v>4</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>